--- a/导出模板.xlsx
+++ b/导出模板.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\json-script-rule\rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F3C59F-B9AE-4201-AFA2-23D19D96647F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A1FB59-ACCB-439C-974B-9D3ECFCF8369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="动车组开行情况" sheetId="1" r:id="rId1"/>
+    <sheet name="lala" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>动车开行情况</t>
   </si>
@@ -103,6 +104,34 @@
   </si>
   <si>
     <t>ZsTestUpdate.test_field</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZsTestPO.create_date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZsTestPO.id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;asd&gt;大标题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -540,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -682,4 +711,113 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3475D369-F3DA-4B1B-A8D9-FB2B6D2C9015}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="15" max="15" width="27.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>